--- a/data/trans_dic/P23_1_2016_2023_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R2-Habitat-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.1517047799195304</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1234815838513894</v>
+        <v>0.1234815838513895</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.176496752053444</v>
+        <v>0.1759160983997992</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1544036337066923</v>
+        <v>0.1523250831918999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07628255340614634</v>
+        <v>0.07543315165892019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0562605171145695</v>
+        <v>0.05796697425604359</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1324330498333384</v>
+        <v>0.1318892745313514</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1089525565590491</v>
+        <v>0.1092619527179229</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2393712786246026</v>
+        <v>0.2370438503053646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2075815989002767</v>
+        <v>0.2089059272603644</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1224988520500097</v>
+        <v>0.1225057014826188</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08783078326259838</v>
+        <v>0.09085097085675831</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1701299562341475</v>
+        <v>0.1735107524905584</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1412769555055822</v>
+        <v>0.1406999959312015</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1897131797455499</v>
+        <v>0.185452240213608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1395925873274533</v>
+        <v>0.1420095715297156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0793899708667192</v>
+        <v>0.08339635473738133</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07240909346651943</v>
+        <v>0.07080703565401253</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1408148794436315</v>
+        <v>0.1407473075383846</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1116664356329673</v>
+        <v>0.1113616926224612</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2389113731975087</v>
+        <v>0.2399697885435074</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1883111362496372</v>
+        <v>0.1910466175139587</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1182418192372347</v>
+        <v>0.120710371974841</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1003865284868892</v>
+        <v>0.09990551644708934</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1730894887361411</v>
+        <v>0.1726896328682245</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1376764089299864</v>
+        <v>0.1396975979913093</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.190482981828669</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2063120491492879</v>
+        <v>0.2063120491492878</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1049516641247674</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1618876875262325</v>
+        <v>0.1625864011210591</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1787813318427179</v>
+        <v>0.1768861242154046</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08505513871307102</v>
+        <v>0.0826106538864778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08321530158049451</v>
+        <v>0.08675196702133166</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1290775895423565</v>
+        <v>0.1280309808185365</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1366310046212406</v>
+        <v>0.1366711774457372</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2235181803651868</v>
+        <v>0.2204228513247259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2393121748918492</v>
+        <v>0.2403115463686995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1285308596080929</v>
+        <v>0.1308729801327816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1222493393088889</v>
+        <v>0.1262614919406402</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1660264796676358</v>
+        <v>0.1655283967995796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1726982503193002</v>
+        <v>0.1727828597674431</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.190544781454065</v>
+        <v>0.1903581342695203</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1802122802157451</v>
+        <v>0.1801144223668462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1078626200722456</v>
+        <v>0.1074093248222362</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1078865952830649</v>
+        <v>0.1099393921258281</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1539442477998571</v>
+        <v>0.1529542310363783</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1485076074361209</v>
+        <v>0.1468394179693351</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2425603757984782</v>
+        <v>0.2438810209556475</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2325815874878339</v>
+        <v>0.2333307294745111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1535580011775889</v>
+        <v>0.1519213140956111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1432589696380401</v>
+        <v>0.1448313079359141</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1875797489385182</v>
+        <v>0.1874675002570406</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1776372689569267</v>
+        <v>0.1778371384042185</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.1094004155006001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.157319150229109</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>119100</v>
+        <v>118708</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>106481</v>
+        <v>105048</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>51241</v>
+        <v>50671</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>41245</v>
+        <v>42496</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>178325</v>
+        <v>177593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>155011</v>
+        <v>155451</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>161528</v>
+        <v>159957</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>143154</v>
+        <v>144067</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82286</v>
+        <v>82291</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64390</v>
+        <v>66604</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>229085</v>
+        <v>233637</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>201001</v>
+        <v>200180</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>193765</v>
+        <v>189413</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>146262</v>
+        <v>148794</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82723</v>
+        <v>86898</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77538</v>
+        <v>75823</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>290550</v>
+        <v>290410</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>236578</v>
+        <v>235932</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>244014</v>
+        <v>245095</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>197308</v>
+        <v>200174</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>123206</v>
+        <v>125778</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>107498</v>
+        <v>106983</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>357143</v>
+        <v>356318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>291683</v>
+        <v>295965</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>122822</v>
+        <v>123352</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>143364</v>
+        <v>141844</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>66589</v>
+        <v>64675</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>67592</v>
+        <v>70465</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>198984</v>
+        <v>197370</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>220543</v>
+        <v>220608</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>169581</v>
+        <v>167232</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>191903</v>
+        <v>192705</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>100626</v>
+        <v>102460</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>99298</v>
+        <v>102557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>255943</v>
+        <v>255176</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>278762</v>
+        <v>278898</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>178648</v>
+        <v>178474</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>178421</v>
+        <v>178324</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>112446</v>
+        <v>111974</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>120312</v>
+        <v>122601</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>304819</v>
+        <v>302859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>312643</v>
+        <v>309131</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>227417</v>
+        <v>228655</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>230270</v>
+        <v>231012</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>160083</v>
+        <v>158377</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>159758</v>
+        <v>161512</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>371419</v>
+        <v>371197</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>373968</v>
+        <v>374388</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
     </row>
     <row r="24">
